--- a/administrative/main.xlsx
+++ b/administrative/main.xlsx
@@ -8,16 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\pandemic_modelling\administrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD42C51C-B9F3-4A7E-B776-409C2FA4BD03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1747DDD-5768-49F5-B749-302E574B6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="literature review" sheetId="1" r:id="rId1"/>
     <sheet name="ggm" sheetId="2" r:id="rId2"/>
     <sheet name="structure" sheetId="3" r:id="rId3"/>
     <sheet name="sources" sheetId="4" r:id="rId4"/>
-    <sheet name="Ideas" sheetId="5" r:id="rId5"/>
+    <sheet name="modelling" sheetId="6" r:id="rId5"/>
+    <sheet name="Ideas" sheetId="5" r:id="rId6"/>
+    <sheet name="help" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="166">
   <si>
     <t>Pandemics &amp; Diffussion Models</t>
   </si>
@@ -457,11 +459,116 @@
   <si>
     <t>Medellin Data Sivigila / dengue, zika,…2019-2025</t>
   </si>
+  <si>
+    <t>Modelling</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Bass</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>SIR</t>
+  </si>
+  <si>
+    <t>SEIR</t>
+  </si>
+  <si>
+    <t>Erdős-Rényi</t>
+  </si>
+  <si>
+    <t>Barabasi</t>
+  </si>
+  <si>
+    <t>GGM + refinement</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>DNN</t>
+  </si>
+  <si>
+    <t>RNN</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>List status</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Covid Full</t>
+  </si>
+  <si>
+    <t>Covid Split</t>
+  </si>
+  <si>
+    <t>Epidemics Full</t>
+  </si>
+  <si>
+    <t>Epidemics Split</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S2666720722000145</t>
+  </si>
+  <si>
+    <t>SEIR fit italy</t>
+  </si>
+  <si>
+    <t>Do Local Regression or LOESS</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/html/2403.12560v1</t>
+  </si>
+  <si>
+    <t>Erdos-Renyi-SIS</t>
+  </si>
+  <si>
+    <t>The SIS process on Erdős-Rényi graphs: determining the infected fraction</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/science/article/pii/S1110016822004835</t>
+  </si>
+  <si>
+    <t>Numerical simulations on scale-free and random networks for the spread of COVID-19 in Pakistan</t>
+  </si>
+  <si>
+    <t>Erdos-Renyi-Barabasi-Albert-SIR</t>
+  </si>
+  <si>
+    <t>Network simulation fine-tunning parameters with loss function</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Is to computationally heavy</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -568,7 +675,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -580,6 +687,8 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -915,10 +1024,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354077A2-E602-4D9A-90DA-98AD5E623913}">
-  <dimension ref="B1:F22"/>
+  <dimension ref="B1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1076,16 +1185,16 @@
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="1">
+      <c r="B13" s="6">
         <v>10</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="7" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1107,16 +1216,16 @@
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="1">
+      <c r="B15" s="6">
         <v>12</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
@@ -1135,16 +1244,16 @@
       </c>
     </row>
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="1">
+      <c r="B17" s="6">
         <v>14</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="7" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1163,16 +1272,16 @@
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="1">
+      <c r="B19" s="6">
         <v>16</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="7" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1191,13 +1300,14 @@
       </c>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1">
+      <c r="B21" s="6">
         <v>18</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1213,6 +1323,34 @@
       </c>
       <c r="E22" s="4" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="6">
+        <v>20</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1">
+        <v>21</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -1237,6 +1375,8 @@
     <hyperlink ref="E20" r:id="rId18" xr:uid="{329731CB-DF4B-4585-9EF3-AFC1FF4697B1}"/>
     <hyperlink ref="E21" r:id="rId19" xr:uid="{8BF97103-8B1D-479D-A092-E129DB45FC39}"/>
     <hyperlink ref="E22" r:id="rId20" xr:uid="{94F4A7D7-3F55-4643-9FD0-A11EF159A4C1}"/>
+    <hyperlink ref="E23" r:id="rId21" xr:uid="{3D99AF48-A732-4ADA-B469-518D1E1C4F59}"/>
+    <hyperlink ref="E24" r:id="rId22" xr:uid="{EAAB6CA0-E60C-4CCA-9A60-6D6314C9AA39}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1351,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA430712-2AF2-46BC-B2A9-A9F8B8AAD612}">
-  <dimension ref="B1:E17"/>
+  <dimension ref="B1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1490,6 +1630,14 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1507,17 +1655,561 @@
     <hyperlink ref="B15" r:id="rId11" xr:uid="{9B2C70CF-05E7-483F-BF54-1F1A81344652}"/>
     <hyperlink ref="B16" r:id="rId12" xr:uid="{5A3BE6A4-C6D2-4CA8-A7D4-CA94B0A6C855}"/>
     <hyperlink ref="B17" r:id="rId13" xr:uid="{6D14AA1C-B244-4542-BBB2-25A3D93EFDC9}"/>
+    <hyperlink ref="B18" r:id="rId14" xr:uid="{A779DE4D-3ECD-43A7-A7DD-93AE7FC506C1}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1CF100-492E-4601-94D9-DFEFC6926913}">
+  <dimension ref="B1:G48"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G8" s="12"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B46" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B48" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8E8FB5F8-9A3F-49FB-85B4-7B9DCE5ECBCA}">
+          <x14:formula1>
+            <xm:f>help!$B$4:$B$5</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:D48</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE21AE24-7B23-4499-8D22-C9A70AD3E5F9}">
-  <dimension ref="B1:C25"/>
+  <dimension ref="B1:C26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1710,8 +2402,59 @@
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
+      <c r="B25" s="6">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="1">
+        <v>24</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5625718-4007-43A2-8FA5-6282944FC450}">
+  <dimension ref="B1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="11" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1" t="s">
+        <v>149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/administrative/main.xlsx
+++ b/administrative/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\pandemic_modelling\administrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1747DDD-5768-49F5-B749-302E574B6621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4784EA-E042-4FAA-ACF3-A9F9E17E2602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="literature review" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,9 @@
     <sheet name="structure" sheetId="3" r:id="rId3"/>
     <sheet name="sources" sheetId="4" r:id="rId4"/>
     <sheet name="modelling" sheetId="6" r:id="rId5"/>
-    <sheet name="Ideas" sheetId="5" r:id="rId6"/>
-    <sheet name="help" sheetId="7" r:id="rId7"/>
+    <sheet name="results" sheetId="8" r:id="rId6"/>
+    <sheet name="Ideas" sheetId="5" r:id="rId7"/>
+    <sheet name="help" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="195">
   <si>
     <t>Pandemics &amp; Diffussion Models</t>
   </si>
@@ -559,17 +560,105 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Is to computationally heavy</t>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>R2_BM</t>
+  </si>
+  <si>
+    <t>RMSE_BM</t>
+  </si>
+  <si>
+    <t>R2_GGM</t>
+  </si>
+  <si>
+    <t>RMSE_GGM</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Panama</t>
+  </si>
+  <si>
+    <t>Uruguay</t>
+  </si>
+  <si>
+    <t>US</t>
+  </si>
+  <si>
+    <t>Daily Full Covid</t>
+  </si>
+  <si>
+    <t>Winner</t>
+  </si>
+  <si>
+    <t>Weekly Full Covid</t>
+  </si>
+  <si>
+    <t>Monthly Full Covid</t>
+  </si>
+  <si>
+    <t>Is too computationally heavy / only do for Colombian Epidemics</t>
+  </si>
+  <si>
+    <t>Non-linear Adoption models</t>
+  </si>
+  <si>
+    <t>R2</t>
+  </si>
+  <si>
+    <t>RMSE</t>
+  </si>
+  <si>
+    <t>GGM+Arima</t>
+  </si>
+  <si>
+    <t>RMSE vs GGM</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>RMSE Summary</t>
+  </si>
+  <si>
+    <t>BM</t>
+  </si>
+  <si>
+    <t>GGM + ARIMA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="174" formatCode="0.000"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -632,8 +721,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -649,6 +763,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -675,7 +795,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -689,6 +809,23 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1026,7 +1163,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354077A2-E602-4D9A-90DA-98AD5E623913}">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1665,8 +1802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1CF100-492E-4601-94D9-DFEFC6926913}">
   <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1740,7 +1877,7 @@
         <v>149</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="G8" s="12"/>
     </row>
@@ -1755,7 +1892,7 @@
         <v>149</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.3">
@@ -1766,7 +1903,7 @@
         <v>33</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.3">
@@ -1777,7 +1914,7 @@
         <v>142</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.3">
@@ -2205,6 +2342,1726 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2EA5AC-0586-4893-B88A-0F9AA6E9FD44}">
+  <dimension ref="B1:AA46"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="V6" sqref="V6:AA16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="2" style="20" customWidth="1"/>
+    <col min="9" max="11" width="8.88671875" style="1"/>
+    <col min="12" max="12" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="2" style="20" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="1"/>
+    <col min="15" max="15" width="9.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="2" style="20" customWidth="1"/>
+    <col min="18" max="19" width="8.88671875" style="1"/>
+    <col min="20" max="20" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="2" style="20" customWidth="1"/>
+    <col min="22" max="22" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="10.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:27" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="10" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B2" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="R2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="S2" s="19"/>
+      <c r="V2" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="W2" s="19"/>
+      <c r="X2" s="19"/>
+    </row>
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="R4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="W4" s="13"/>
+      <c r="X4" s="13"/>
+    </row>
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="O6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="P6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="S6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="T6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="V6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="W6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="X6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA6" s="9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C7" s="15">
+        <v>7.6682159999999999E-2</v>
+      </c>
+      <c r="D7" s="14">
+        <v>12385875.99</v>
+      </c>
+      <c r="E7" s="15">
+        <v>0.98591989999999996</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1529515.1</v>
+      </c>
+      <c r="G7" s="1" t="str">
+        <f>+IF(F7&lt;D7,"GGM","BM")</f>
+        <v>GGM</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J7" s="12">
+        <v>0.99999850000000001</v>
+      </c>
+      <c r="K7" s="14">
+        <v>15681.4452</v>
+      </c>
+      <c r="L7" s="14">
+        <f>+K7-_xlfn.XLOOKUP(I7,B$7:B$16,F$7:F$16)</f>
+        <v>-1513833.6548000001</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="O7" s="12">
+        <v>-0.39370899999999998</v>
+      </c>
+      <c r="P7" s="14">
+        <v>15217290</v>
+      </c>
+      <c r="R7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="S7" s="12">
+        <v>-9.8227999999999996E-2</v>
+      </c>
+      <c r="T7" s="14">
+        <v>13264390</v>
+      </c>
+      <c r="V7" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="W7" s="14">
+        <f>+_xlfn.XLOOKUP($V7,N$7:N$16,P$7:P$16)</f>
+        <v>15217290</v>
+      </c>
+      <c r="X7" s="14">
+        <f>+_xlfn.XLOOKUP($V7,R$7:R$16,T$7:T$16)</f>
+        <v>13264390</v>
+      </c>
+      <c r="Y7" s="14">
+        <f>+_xlfn.XLOOKUP($V7,B$7:B$16,D$7:D$16)</f>
+        <v>12385875.99</v>
+      </c>
+      <c r="Z7" s="14">
+        <f>+_xlfn.XLOOKUP($V7,B$7:B$16,F$7:F$16)</f>
+        <v>1529515.1</v>
+      </c>
+      <c r="AA7" s="14">
+        <f>+_xlfn.XLOOKUP($V7,I$7:I$16,K$7:K$16)</f>
+        <v>15681.4452</v>
+      </c>
+    </row>
+    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C8" s="16">
+        <v>-0.13819318</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1864908.65</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.76609179999999999</v>
+      </c>
+      <c r="F8" s="17">
+        <v>845419.62</v>
+      </c>
+      <c r="G8" s="6" t="str">
+        <f t="shared" ref="G8:G16" si="0">+IF(F8&lt;D8,"GGM","BM")</f>
+        <v>GGM</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J8" s="18">
+        <v>0.99999919999999998</v>
+      </c>
+      <c r="K8" s="17">
+        <v>1577.3933</v>
+      </c>
+      <c r="L8" s="17">
+        <f t="shared" ref="L8:L16" si="1">+K8-_xlfn.XLOOKUP(I8,B$7:B$16,F$7:F$16)</f>
+        <v>-843842.2267</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.44333400000000001</v>
+      </c>
+      <c r="P8" s="17">
+        <v>1304208</v>
+      </c>
+      <c r="R8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="S8" s="18">
+        <v>0.91093299999999999</v>
+      </c>
+      <c r="T8" s="17">
+        <v>518469</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="W8" s="17">
+        <f t="shared" ref="W8:W16" si="2">+_xlfn.XLOOKUP($V8,N$7:N$16,P$7:P$16)</f>
+        <v>1304208</v>
+      </c>
+      <c r="X8" s="17">
+        <f t="shared" ref="X8:X16" si="3">+_xlfn.XLOOKUP($V8,R$7:R$16,T$7:T$16)</f>
+        <v>518469</v>
+      </c>
+      <c r="Y8" s="17">
+        <f t="shared" ref="Y8:Y16" si="4">+_xlfn.XLOOKUP($V8,B$7:B$16,D$7:D$16)</f>
+        <v>1864908.65</v>
+      </c>
+      <c r="Z8" s="17">
+        <f t="shared" ref="Z8:Z16" si="5">+_xlfn.XLOOKUP($V8,B$7:B$16,F$7:F$16)</f>
+        <v>845419.62</v>
+      </c>
+      <c r="AA8" s="17">
+        <f t="shared" ref="AA8:AA16" si="6">+_xlfn.XLOOKUP($V8,I$7:I$16,K$7:K$16)</f>
+        <v>1577.3933</v>
+      </c>
+    </row>
+    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C9" s="15">
+        <v>0.99484592000000005</v>
+      </c>
+      <c r="D9" s="14">
+        <v>177163.47</v>
+      </c>
+      <c r="E9" s="15">
+        <v>0.99522969999999999</v>
+      </c>
+      <c r="F9" s="14">
+        <v>170439.52</v>
+      </c>
+      <c r="G9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J9" s="12">
+        <v>0.99526269999999994</v>
+      </c>
+      <c r="K9" s="14">
+        <v>169850.0097</v>
+      </c>
+      <c r="L9" s="14">
+        <f t="shared" si="1"/>
+        <v>-589.51029999999446</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="O9" s="12">
+        <v>-0.84969700000000004</v>
+      </c>
+      <c r="P9" s="14">
+        <v>3356209</v>
+      </c>
+      <c r="R9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="S9" s="12">
+        <v>-0.18831400000000001</v>
+      </c>
+      <c r="T9" s="14">
+        <v>2617900</v>
+      </c>
+      <c r="V9" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="W9" s="14">
+        <f t="shared" si="2"/>
+        <v>3356209</v>
+      </c>
+      <c r="X9" s="14">
+        <f t="shared" si="3"/>
+        <v>2617900</v>
+      </c>
+      <c r="Y9" s="14">
+        <f t="shared" si="4"/>
+        <v>177163.47</v>
+      </c>
+      <c r="Z9" s="14">
+        <f t="shared" si="5"/>
+        <v>170439.52</v>
+      </c>
+      <c r="AA9" s="14">
+        <f t="shared" si="6"/>
+        <v>169850.0097</v>
+      </c>
+    </row>
+    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C10" s="16">
+        <v>0.98982815000000002</v>
+      </c>
+      <c r="D10" s="17">
+        <v>23648.33</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.99253970000000002</v>
+      </c>
+      <c r="F10" s="17">
+        <v>20252.46</v>
+      </c>
+      <c r="G10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="J10" s="18">
+        <v>0.99999669999999996</v>
+      </c>
+      <c r="K10" s="17">
+        <v>425.01549999999997</v>
+      </c>
+      <c r="L10" s="17">
+        <f t="shared" si="1"/>
+        <v>-19827.444499999998</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="O10" s="18">
+        <v>-0.70091599999999998</v>
+      </c>
+      <c r="P10" s="17">
+        <v>305803.09999999998</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="S10" s="18">
+        <v>3.9317999999999999E-2</v>
+      </c>
+      <c r="T10" s="17">
+        <v>224458</v>
+      </c>
+      <c r="V10" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="W10" s="17">
+        <f t="shared" si="2"/>
+        <v>305803.09999999998</v>
+      </c>
+      <c r="X10" s="17">
+        <f t="shared" si="3"/>
+        <v>224458</v>
+      </c>
+      <c r="Y10" s="17">
+        <f t="shared" si="4"/>
+        <v>23648.33</v>
+      </c>
+      <c r="Z10" s="17">
+        <f t="shared" si="5"/>
+        <v>20252.46</v>
+      </c>
+      <c r="AA10" s="17">
+        <f t="shared" si="6"/>
+        <v>425.01549999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C11" s="15">
+        <v>0.99039379999999999</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1367228.95</v>
+      </c>
+      <c r="E11" s="15">
+        <v>0.99169609999999997</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1271179.51</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J11" s="12">
+        <v>0.99999199999999999</v>
+      </c>
+      <c r="K11" s="14">
+        <v>39575.911200000002</v>
+      </c>
+      <c r="L11" s="14">
+        <f t="shared" si="1"/>
+        <v>-1231603.5988</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="O11" s="12">
+        <v>0.97311099999999995</v>
+      </c>
+      <c r="P11" s="14">
+        <v>2287439</v>
+      </c>
+      <c r="R11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0.98591399999999996</v>
+      </c>
+      <c r="T11" s="14">
+        <v>1656545</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="W11" s="14">
+        <f t="shared" si="2"/>
+        <v>2287439</v>
+      </c>
+      <c r="X11" s="14">
+        <f t="shared" si="3"/>
+        <v>1656545</v>
+      </c>
+      <c r="Y11" s="14">
+        <f t="shared" si="4"/>
+        <v>1367228.95</v>
+      </c>
+      <c r="Z11" s="14">
+        <f t="shared" si="5"/>
+        <v>1271179.51</v>
+      </c>
+      <c r="AA11" s="14">
+        <f t="shared" si="6"/>
+        <v>39575.911200000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C12" s="16">
+        <v>0.98519310000000004</v>
+      </c>
+      <c r="D12" s="17">
+        <v>1102529.6399999999</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.98868739999999999</v>
+      </c>
+      <c r="F12" s="17">
+        <v>963692.8</v>
+      </c>
+      <c r="G12" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J12" s="18">
+        <v>0.99999669999999996</v>
+      </c>
+      <c r="K12" s="17">
+        <v>16566.6181</v>
+      </c>
+      <c r="L12" s="17">
+        <f t="shared" si="1"/>
+        <v>-947126.18190000008</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0.90446300000000002</v>
+      </c>
+      <c r="P12" s="17">
+        <v>2800556</v>
+      </c>
+      <c r="R12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="S12" s="18">
+        <v>0.96489400000000003</v>
+      </c>
+      <c r="T12" s="17">
+        <v>1697944</v>
+      </c>
+      <c r="V12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="W12" s="17">
+        <f t="shared" si="2"/>
+        <v>2800556</v>
+      </c>
+      <c r="X12" s="17">
+        <f t="shared" si="3"/>
+        <v>1697944</v>
+      </c>
+      <c r="Y12" s="17">
+        <f t="shared" si="4"/>
+        <v>1102529.6399999999</v>
+      </c>
+      <c r="Z12" s="17">
+        <f t="shared" si="5"/>
+        <v>963692.8</v>
+      </c>
+      <c r="AA12" s="17">
+        <f t="shared" si="6"/>
+        <v>16566.6181</v>
+      </c>
+    </row>
+    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C13" s="15">
+        <v>5.7728759999999997E-2</v>
+      </c>
+      <c r="D13" s="14">
+        <v>2513538.7400000002</v>
+      </c>
+      <c r="E13" s="15">
+        <v>0.99397869999999999</v>
+      </c>
+      <c r="F13" s="14">
+        <v>200928.3</v>
+      </c>
+      <c r="G13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J13" s="12">
+        <v>0.99991370000000002</v>
+      </c>
+      <c r="K13" s="14">
+        <v>24061.312300000001</v>
+      </c>
+      <c r="L13" s="14">
+        <f t="shared" si="1"/>
+        <v>-176866.9877</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="O13" s="12">
+        <v>-327.19220100000001</v>
+      </c>
+      <c r="P13" s="14">
+        <v>46909600</v>
+      </c>
+      <c r="R13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="S13" s="12">
+        <v>-4.0384000000000003E-2</v>
+      </c>
+      <c r="T13" s="14">
+        <v>2603995</v>
+      </c>
+      <c r="V13" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="W13" s="14">
+        <f t="shared" si="2"/>
+        <v>46909600</v>
+      </c>
+      <c r="X13" s="14">
+        <f t="shared" si="3"/>
+        <v>2603995</v>
+      </c>
+      <c r="Y13" s="14">
+        <f t="shared" si="4"/>
+        <v>2513538.7400000002</v>
+      </c>
+      <c r="Z13" s="14">
+        <f t="shared" si="5"/>
+        <v>200928.3</v>
+      </c>
+      <c r="AA13" s="14">
+        <f t="shared" si="6"/>
+        <v>24061.312300000001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C14" s="16">
+        <v>1.795393E-2</v>
+      </c>
+      <c r="D14" s="17">
+        <v>355071.95</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0.98202429999999996</v>
+      </c>
+      <c r="F14" s="17">
+        <v>48038.9</v>
+      </c>
+      <c r="G14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J14" s="18">
+        <v>0.99998960000000003</v>
+      </c>
+      <c r="K14" s="17">
+        <v>1157.9239</v>
+      </c>
+      <c r="L14" s="17">
+        <f t="shared" si="1"/>
+        <v>-46880.9761</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="O14" s="18">
+        <v>2.6889E-2</v>
+      </c>
+      <c r="P14" s="17">
+        <v>353453</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="S14" s="18">
+        <v>0.87112000000000001</v>
+      </c>
+      <c r="T14" s="17">
+        <v>125949</v>
+      </c>
+      <c r="V14" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="W14" s="17">
+        <f t="shared" si="2"/>
+        <v>353453</v>
+      </c>
+      <c r="X14" s="17">
+        <f t="shared" si="3"/>
+        <v>125949</v>
+      </c>
+      <c r="Y14" s="17">
+        <f t="shared" si="4"/>
+        <v>355071.95</v>
+      </c>
+      <c r="Z14" s="17">
+        <f t="shared" si="5"/>
+        <v>48038.9</v>
+      </c>
+      <c r="AA14" s="17">
+        <f t="shared" si="6"/>
+        <v>1157.9239</v>
+      </c>
+    </row>
+    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="15">
+        <v>0.97698001999999995</v>
+      </c>
+      <c r="D15" s="14">
+        <v>62216.71</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0.98182789999999998</v>
+      </c>
+      <c r="F15" s="14">
+        <v>55278.55</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J15" s="12">
+        <v>0.99999769999999999</v>
+      </c>
+      <c r="K15" s="14">
+        <v>55078.919900000001</v>
+      </c>
+      <c r="L15" s="14">
+        <f t="shared" si="1"/>
+        <v>-4022279.7900999999</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="O15" s="12">
+        <v>0.29647899999999999</v>
+      </c>
+      <c r="P15" s="14">
+        <v>30580360</v>
+      </c>
+      <c r="R15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0.833893</v>
+      </c>
+      <c r="T15" s="14">
+        <v>14859300</v>
+      </c>
+      <c r="V15" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="W15" s="14">
+        <f t="shared" si="2"/>
+        <v>30580360</v>
+      </c>
+      <c r="X15" s="14">
+        <f t="shared" si="3"/>
+        <v>14859300</v>
+      </c>
+      <c r="Y15" s="14">
+        <f t="shared" si="4"/>
+        <v>35497296.340000004</v>
+      </c>
+      <c r="Z15" s="14">
+        <f t="shared" si="5"/>
+        <v>4077358.71</v>
+      </c>
+      <c r="AA15" s="14">
+        <f t="shared" si="6"/>
+        <v>55078.919900000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="B16" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="16">
+        <v>5.2056409999999997E-2</v>
+      </c>
+      <c r="D16" s="17">
+        <v>35497296.340000004</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.98749310000000001</v>
+      </c>
+      <c r="F16" s="17">
+        <v>4077358.71</v>
+      </c>
+      <c r="G16" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GGM</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J16" s="18">
+        <v>0.98195189999999999</v>
+      </c>
+      <c r="K16" s="17">
+        <v>55089.632700000002</v>
+      </c>
+      <c r="L16" s="17">
+        <f t="shared" si="1"/>
+        <v>-188.91730000000098</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0.52243200000000001</v>
+      </c>
+      <c r="P16" s="17">
+        <v>283382.09999999998</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="S16" s="18">
+        <v>0.96743000000000001</v>
+      </c>
+      <c r="T16" s="17">
+        <v>73683.27</v>
+      </c>
+      <c r="V16" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="W16" s="17">
+        <f t="shared" si="2"/>
+        <v>283382.09999999998</v>
+      </c>
+      <c r="X16" s="17">
+        <f t="shared" si="3"/>
+        <v>73683.27</v>
+      </c>
+      <c r="Y16" s="17">
+        <f t="shared" si="4"/>
+        <v>62216.71</v>
+      </c>
+      <c r="Z16" s="17">
+        <f t="shared" si="5"/>
+        <v>55278.55</v>
+      </c>
+      <c r="AA16" s="17">
+        <f t="shared" si="6"/>
+        <v>55089.632700000002</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B19" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="T19" s="21"/>
+      <c r="V19" s="22"/>
+      <c r="W19" s="22"/>
+      <c r="X19" s="22"/>
+    </row>
+    <row r="20" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="T20" s="21"/>
+      <c r="V20" s="23"/>
+      <c r="W20" s="23"/>
+      <c r="X20" s="23"/>
+    </row>
+    <row r="21" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="T21" s="21"/>
+      <c r="V21" s="23"/>
+      <c r="W21" s="23"/>
+      <c r="X21" s="23"/>
+    </row>
+    <row r="22" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C22" s="15">
+        <v>0.99309789999999998</v>
+      </c>
+      <c r="D22" s="14">
+        <v>1072993.76</v>
+      </c>
+      <c r="E22" s="15">
+        <v>0.99536570000000002</v>
+      </c>
+      <c r="F22" s="14">
+        <v>879227.23</v>
+      </c>
+      <c r="G22" s="1" t="str">
+        <f>+IF(F22&lt;D22,"GGM","BM")</f>
+        <v>GGM</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J22" s="12">
+        <v>0.99997320000000001</v>
+      </c>
+      <c r="K22" s="14">
+        <v>66881.517999999996</v>
+      </c>
+      <c r="L22" s="14">
+        <f>+K22-_xlfn.XLOOKUP(I22,B$22:B$31,F$22:F$31)</f>
+        <v>-812345.71199999994</v>
+      </c>
+      <c r="T22" s="21"/>
+      <c r="V22" s="23"/>
+      <c r="W22" s="23"/>
+      <c r="X22" s="23"/>
+    </row>
+    <row r="23" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B23" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C23" s="16">
+        <v>0.98500410000000005</v>
+      </c>
+      <c r="D23" s="17">
+        <v>215298.15</v>
+      </c>
+      <c r="E23" s="16">
+        <v>0.98811400000000005</v>
+      </c>
+      <c r="F23" s="17">
+        <v>191678.16</v>
+      </c>
+      <c r="G23" s="6" t="str">
+        <f t="shared" ref="G23:G31" si="7">+IF(F23&lt;D23,"GGM","BM")</f>
+        <v>GGM</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="18">
+        <v>0.99997939999999996</v>
+      </c>
+      <c r="K23" s="17">
+        <v>7970.5929999999998</v>
+      </c>
+      <c r="L23" s="17">
+        <f t="shared" ref="L23:L31" si="8">+K23-_xlfn.XLOOKUP(I23,B$22:B$31,F$22:F$31)</f>
+        <v>-183707.56700000001</v>
+      </c>
+      <c r="T23" s="21"/>
+      <c r="V23" s="23"/>
+      <c r="W23" s="23"/>
+      <c r="X23" s="23"/>
+    </row>
+    <row r="24" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C24" s="15">
+        <v>0.99486560000000002</v>
+      </c>
+      <c r="D24" s="14">
+        <v>176803.48</v>
+      </c>
+      <c r="E24" s="15">
+        <v>0.99525220000000003</v>
+      </c>
+      <c r="F24" s="14">
+        <v>170016.12</v>
+      </c>
+      <c r="G24" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="12">
+        <v>0.9999827</v>
+      </c>
+      <c r="K24" s="14">
+        <v>10259.941000000001</v>
+      </c>
+      <c r="L24" s="14">
+        <f t="shared" si="8"/>
+        <v>-159756.179</v>
+      </c>
+      <c r="T24" s="21"/>
+      <c r="V24" s="23"/>
+      <c r="W24" s="23"/>
+      <c r="X24" s="23"/>
+    </row>
+    <row r="25" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.98980849999999998</v>
+      </c>
+      <c r="D25" s="17">
+        <v>23695.26</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.99255309999999997</v>
+      </c>
+      <c r="F25" s="17">
+        <v>20254.93</v>
+      </c>
+      <c r="G25" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I25" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J25" s="18">
+        <v>0.99986940000000002</v>
+      </c>
+      <c r="K25" s="17">
+        <v>2682.71</v>
+      </c>
+      <c r="L25" s="17">
+        <f t="shared" si="8"/>
+        <v>-17572.22</v>
+      </c>
+      <c r="T25" s="21"/>
+      <c r="V25" s="23"/>
+      <c r="W25" s="23"/>
+      <c r="X25" s="23"/>
+    </row>
+    <row r="26" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="15">
+        <v>0.99044909999999997</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1370516.61</v>
+      </c>
+      <c r="E26" s="15">
+        <v>0.99179399999999995</v>
+      </c>
+      <c r="F26" s="14">
+        <v>1270365.45</v>
+      </c>
+      <c r="G26" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J26" s="12">
+        <v>0.99998489999999995</v>
+      </c>
+      <c r="K26" s="14">
+        <v>54571.813999999998</v>
+      </c>
+      <c r="L26" s="14">
+        <f t="shared" si="8"/>
+        <v>-1215793.6359999999</v>
+      </c>
+      <c r="T26" s="21"/>
+      <c r="V26" s="23"/>
+      <c r="W26" s="23"/>
+      <c r="X26" s="23"/>
+    </row>
+    <row r="27" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.98537799999999998</v>
+      </c>
+      <c r="D27" s="17">
+        <v>1102885.5</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.98886949999999996</v>
+      </c>
+      <c r="F27" s="17">
+        <v>962242.14</v>
+      </c>
+      <c r="G27" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I27" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J27" s="18">
+        <v>0.99998299999999996</v>
+      </c>
+      <c r="K27" s="17">
+        <v>37554.368000000002</v>
+      </c>
+      <c r="L27" s="17">
+        <f t="shared" si="8"/>
+        <v>-924687.772</v>
+      </c>
+      <c r="T27" s="21"/>
+      <c r="V27" s="23"/>
+      <c r="W27" s="23"/>
+      <c r="X27" s="23"/>
+    </row>
+    <row r="28" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C28" s="15">
+        <v>0.99328240000000001</v>
+      </c>
+      <c r="D28" s="14">
+        <v>212970.27</v>
+      </c>
+      <c r="E28" s="15">
+        <v>0.99533090000000002</v>
+      </c>
+      <c r="F28" s="14">
+        <v>177553.42</v>
+      </c>
+      <c r="G28" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J28" s="12">
+        <v>0.99995199999999995</v>
+      </c>
+      <c r="K28" s="14">
+        <v>18001.951000000001</v>
+      </c>
+      <c r="L28" s="14">
+        <f t="shared" si="8"/>
+        <v>-159551.46900000001</v>
+      </c>
+      <c r="T28" s="21"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+    </row>
+    <row r="29" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C29" s="16">
+        <v>0.98214460000000003</v>
+      </c>
+      <c r="D29" s="17">
+        <v>47981.11</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.98652019999999996</v>
+      </c>
+      <c r="F29" s="17">
+        <v>41689.589999999997</v>
+      </c>
+      <c r="G29" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I29" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0.9999439</v>
+      </c>
+      <c r="K29" s="17">
+        <v>2688.72</v>
+      </c>
+      <c r="L29" s="17">
+        <f t="shared" si="8"/>
+        <v>-39000.869999999995</v>
+      </c>
+      <c r="T29" s="21"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C30" s="15">
+        <v>0.97719889999999998</v>
+      </c>
+      <c r="D30" s="14">
+        <v>62031.38</v>
+      </c>
+      <c r="E30" s="15">
+        <v>0.98200609999999999</v>
+      </c>
+      <c r="F30" s="14">
+        <v>55105.7</v>
+      </c>
+      <c r="G30" s="1" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J30" s="12">
+        <v>0.99001130000000004</v>
+      </c>
+      <c r="K30" s="14">
+        <v>3653520.236</v>
+      </c>
+      <c r="L30" s="14">
+        <f t="shared" si="8"/>
+        <v>-4.0000001899898052E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B31" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C31" s="16">
+        <v>0.98704650000000005</v>
+      </c>
+      <c r="D31" s="17">
+        <v>4160546.94</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0.99001130000000004</v>
+      </c>
+      <c r="F31" s="17">
+        <v>3653520.24</v>
+      </c>
+      <c r="G31" s="6" t="str">
+        <f t="shared" si="7"/>
+        <v>GGM</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J31" s="18">
+        <v>0.99996839999999998</v>
+      </c>
+      <c r="K31" s="17">
+        <v>2309.4769999999999</v>
+      </c>
+      <c r="L31" s="17">
+        <f t="shared" si="8"/>
+        <v>-52796.222999999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B34" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="J36" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K36" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="L36" s="9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="15">
+        <v>0.99347419999999997</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1060839.43</v>
+      </c>
+      <c r="E37" s="15">
+        <v>0.99565349999999997</v>
+      </c>
+      <c r="F37" s="14">
+        <v>865766.25</v>
+      </c>
+      <c r="G37" s="1" t="str">
+        <f>+IF(F37&lt;D37,"GGM","BM")</f>
+        <v>GGM</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J37" s="12">
+        <v>0.99883089999999997</v>
+      </c>
+      <c r="K37" s="14">
+        <v>449022.28</v>
+      </c>
+      <c r="L37" s="14">
+        <f>+K37-_xlfn.XLOOKUP(I37,B$37:B$46,F$37:F$46)</f>
+        <v>-416743.97</v>
+      </c>
+    </row>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="C38" s="16">
+        <v>0.9861259</v>
+      </c>
+      <c r="D38" s="17">
+        <v>212847.43</v>
+      </c>
+      <c r="E38" s="16">
+        <v>0.98624369999999995</v>
+      </c>
+      <c r="F38" s="17">
+        <v>211942.1</v>
+      </c>
+      <c r="G38" s="6" t="str">
+        <f t="shared" ref="G38:G46" si="9">+IF(F38&lt;D38,"GGM","BM")</f>
+        <v>GGM</v>
+      </c>
+      <c r="I38" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="J38" s="18">
+        <v>0.99688900000000003</v>
+      </c>
+      <c r="K38" s="17">
+        <v>100789.75999999999</v>
+      </c>
+      <c r="L38" s="17">
+        <f t="shared" ref="L38:L46" si="10">+K38-_xlfn.XLOOKUP(I38,B$37:B$46,F$37:F$46)</f>
+        <v>-111152.34000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C39" s="15">
+        <v>0.99485219999999996</v>
+      </c>
+      <c r="D39" s="14">
+        <v>178035.12</v>
+      </c>
+      <c r="E39" s="15">
+        <v>0.99503900000000001</v>
+      </c>
+      <c r="F39" s="14">
+        <v>174775.12</v>
+      </c>
+      <c r="G39" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J39" s="12">
+        <v>0.99764529999999996</v>
+      </c>
+      <c r="K39" s="14">
+        <v>120410.38</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="10"/>
+        <v>-54364.739999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C40" s="16">
+        <v>0.98931369999999996</v>
+      </c>
+      <c r="D40" s="17">
+        <v>24574.67</v>
+      </c>
+      <c r="E40" s="16">
+        <v>0.99061429999999995</v>
+      </c>
+      <c r="F40" s="17">
+        <v>23030.65</v>
+      </c>
+      <c r="G40" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I40" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="J40" s="18">
+        <v>0.99412920000000005</v>
+      </c>
+      <c r="K40" s="17">
+        <v>18214.75</v>
+      </c>
+      <c r="L40" s="17">
+        <f t="shared" si="10"/>
+        <v>-4815.9000000000015</v>
+      </c>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" s="15">
+        <v>0.9914906</v>
+      </c>
+      <c r="D41" s="14">
+        <v>1334828.55</v>
+      </c>
+      <c r="E41" s="15">
+        <v>0.99270170000000002</v>
+      </c>
+      <c r="F41" s="14">
+        <v>1236195.68</v>
+      </c>
+      <c r="G41" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="J41" s="12">
+        <v>0.99875570000000002</v>
+      </c>
+      <c r="K41" s="14">
+        <v>510440.15</v>
+      </c>
+      <c r="L41" s="14">
+        <f t="shared" si="10"/>
+        <v>-725755.52999999991</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B42" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="C42" s="16">
+        <v>0.98630370000000001</v>
+      </c>
+      <c r="D42" s="17">
+        <v>1098072.98</v>
+      </c>
+      <c r="E42" s="16">
+        <v>0.98630390000000001</v>
+      </c>
+      <c r="F42" s="17">
+        <v>1098061.48</v>
+      </c>
+      <c r="G42" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I42" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="J42" s="18">
+        <v>0.9954769</v>
+      </c>
+      <c r="K42" s="17">
+        <v>631028.31999999995</v>
+      </c>
+      <c r="L42" s="17">
+        <f t="shared" si="10"/>
+        <v>-467033.16000000003</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="15">
+        <v>0.99346559999999995</v>
+      </c>
+      <c r="D43" s="14">
+        <v>214013.36</v>
+      </c>
+      <c r="E43" s="15">
+        <v>0.99437059999999999</v>
+      </c>
+      <c r="F43" s="14">
+        <v>198641.06</v>
+      </c>
+      <c r="G43" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="J43" s="12">
+        <v>0.99769969999999997</v>
+      </c>
+      <c r="K43" s="14">
+        <v>126978.78</v>
+      </c>
+      <c r="L43" s="14">
+        <f t="shared" si="10"/>
+        <v>-71662.28</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="C44" s="16">
+        <v>0.98240799999999995</v>
+      </c>
+      <c r="D44" s="17">
+        <v>48552.9</v>
+      </c>
+      <c r="E44" s="16">
+        <v>0.98409519999999995</v>
+      </c>
+      <c r="F44" s="17">
+        <v>46165.85</v>
+      </c>
+      <c r="G44" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I44" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="J44" s="18">
+        <v>0.99363820000000003</v>
+      </c>
+      <c r="K44" s="17">
+        <v>29197.63</v>
+      </c>
+      <c r="L44" s="17">
+        <f t="shared" si="10"/>
+        <v>-16968.219999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C45" s="15">
+        <v>0.97879510000000003</v>
+      </c>
+      <c r="D45" s="14">
+        <v>60768.02</v>
+      </c>
+      <c r="E45" s="15">
+        <v>0.98328910000000003</v>
+      </c>
+      <c r="F45" s="14">
+        <v>53945.74</v>
+      </c>
+      <c r="G45" s="1" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="J45" s="12">
+        <v>0.98804809999999998</v>
+      </c>
+      <c r="K45" s="14">
+        <v>4077694.45</v>
+      </c>
+      <c r="L45" s="14">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B46" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C46" s="16">
+        <v>0.98749869999999995</v>
+      </c>
+      <c r="D46" s="17">
+        <v>4170359.73</v>
+      </c>
+      <c r="E46" s="16">
+        <v>0.98804809999999998</v>
+      </c>
+      <c r="F46" s="17">
+        <v>4077694.45</v>
+      </c>
+      <c r="G46" s="6" t="str">
+        <f t="shared" si="9"/>
+        <v>GGM</v>
+      </c>
+      <c r="I46" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J46" s="18">
+        <v>0.99455020000000005</v>
+      </c>
+      <c r="K46" s="17">
+        <v>30806.880000000001</v>
+      </c>
+      <c r="L46" s="17">
+        <f t="shared" si="10"/>
+        <v>-23138.859999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="W7:AA16">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE21AE24-7B23-4499-8D22-C9A70AD3E5F9}">
   <dimension ref="B1:C26"/>
   <sheetViews>
@@ -2422,7 +4279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5625718-4007-43A2-8FA5-6282944FC450}">
   <dimension ref="B1:B5"/>
   <sheetViews>

--- a/administrative/main.xlsx
+++ b/administrative/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\pandemic_modelling\administrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F4784EA-E042-4FAA-ACF3-A9F9E17E2602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA451EB-674D-41E1-99CA-55ED467C03BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="literature review" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="202">
   <si>
     <t>Pandemics &amp; Diffussion Models</t>
   </si>
@@ -649,14 +649,36 @@
   <si>
     <t>GGM + ARIMA</t>
   </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
+    <t>Dengue</t>
+  </si>
+  <si>
+    <t>Zika</t>
+  </si>
+  <si>
+    <t>Chicungunya</t>
+  </si>
+  <si>
+    <t>Epidemics Weekly Full</t>
+  </si>
+  <si>
+    <t>BM  + GGM</t>
+  </si>
+  <si>
+    <t>GGM + Refinement</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="174" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="170" formatCode="0.00000"/>
   </numFmts>
   <fonts count="12" x14ac:knownFonts="1">
     <font>
@@ -795,7 +817,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -811,8 +833,8 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="174" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -826,6 +848,10 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1163,7 +1189,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354077A2-E602-4D9A-90DA-98AD5E623913}">
   <dimension ref="B1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -1803,7 +1829,7 @@
   <dimension ref="B1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2343,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2EA5AC-0586-4893-B88A-0F9AA6E9FD44}">
-  <dimension ref="B1:AA46"/>
+  <dimension ref="B1:AJ46"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:AA16"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AF17" sqref="AF17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2373,15 +2399,19 @@
     <col min="23" max="25" width="10.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="8.88671875" style="1"/>
+    <col min="28" max="28" width="2" style="20" customWidth="1"/>
+    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
+    <col min="30" max="32" width="8.88671875" style="1"/>
+    <col min="33" max="33" width="2" style="20" customWidth="1"/>
+    <col min="34" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:36" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>186</v>
       </c>
@@ -2400,8 +2430,14 @@
       </c>
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
-    </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC2" s="19" t="s">
+        <v>200</v>
+      </c>
+      <c r="AH2" s="19" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>181</v>
       </c>
@@ -2419,8 +2455,14 @@
       </c>
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
-    </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC4" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="AH4" s="13" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>166</v>
       </c>
@@ -2487,8 +2529,29 @@
       <c r="AA6" s="9" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AD6" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AJ6" s="9" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>171</v>
       </c>
@@ -2562,8 +2625,29 @@
         <f>+_xlfn.XLOOKUP($V7,I$7:I$16,K$7:K$16)</f>
         <v>15681.4452</v>
       </c>
-    </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE7" s="12">
+        <v>-0.25174930000000001</v>
+      </c>
+      <c r="AF7" s="14">
+        <v>210875.2597</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AI7" s="24">
+        <v>0.99999979999999999</v>
+      </c>
+      <c r="AJ7" s="26">
+        <v>91.979789999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>172</v>
       </c>
@@ -2637,8 +2721,29 @@
         <f t="shared" ref="AA8:AA16" si="6">+_xlfn.XLOOKUP($V8,I$7:I$16,K$7:K$16)</f>
         <v>1577.3933</v>
       </c>
-    </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AD8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE8" s="18">
+        <v>0.99300429999999995</v>
+      </c>
+      <c r="AF8" s="17">
+        <v>15764.5885</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AI8" s="25">
+        <v>0.99997420000000004</v>
+      </c>
+      <c r="AJ8" s="27">
+        <v>99.435940000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>173</v>
       </c>
@@ -2712,8 +2817,29 @@
         <f t="shared" si="6"/>
         <v>169850.0097</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC9" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE9" s="12">
+        <v>0.99683809999999995</v>
+      </c>
+      <c r="AF9" s="14">
+        <v>1100.5509999999999</v>
+      </c>
+      <c r="AH9" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AI9" s="24">
+        <v>0.9999806</v>
+      </c>
+      <c r="AJ9" s="26">
+        <v>88.003110000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>191</v>
       </c>
@@ -2787,8 +2913,20 @@
         <f t="shared" si="6"/>
         <v>425.01549999999997</v>
       </c>
-    </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC10" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD10" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE10" s="18">
+        <v>0.9985077</v>
+      </c>
+      <c r="AF10" s="17">
+        <v>756.05920000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>175</v>
       </c>
@@ -2862,8 +3000,20 @@
         <f t="shared" si="6"/>
         <v>39575.911200000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC11" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD11" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>0.99021340000000002</v>
+      </c>
+      <c r="AF11" s="14">
+        <v>1976.5089</v>
+      </c>
+    </row>
+    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>176</v>
       </c>
@@ -2937,8 +3087,20 @@
         <f t="shared" si="6"/>
         <v>16566.6181</v>
       </c>
-    </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.3">
+      <c r="AC12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="AD12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE12" s="18">
+        <v>0.99795840000000002</v>
+      </c>
+      <c r="AF12" s="17">
+        <v>902.76419999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>177</v>
       </c>
@@ -3013,7 +3175,7 @@
         <v>24061.312300000001</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>178</v>
       </c>
@@ -3088,7 +3250,7 @@
         <v>1157.9239</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>179</v>
       </c>
@@ -3163,7 +3325,7 @@
         <v>55078.919900000001</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>180</v>
       </c>

--- a/administrative/main.xlsx
+++ b/administrative/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\pandemic_modelling\administrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA451EB-674D-41E1-99CA-55ED467C03BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C0AC4-DE5B-44CF-B98F-9EC02F1C8332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="literature review" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="204">
   <si>
     <t>Pandemics &amp; Diffussion Models</t>
   </si>
@@ -659,9 +659,6 @@
     <t>Zika</t>
   </si>
   <si>
-    <t>Chicungunya</t>
-  </si>
-  <si>
     <t>Epidemics Weekly Full</t>
   </si>
   <si>
@@ -669,6 +666,15 @@
   </si>
   <si>
     <t>GGM + Refinement</t>
+  </si>
+  <si>
+    <t>Chicunguya</t>
+  </si>
+  <si>
+    <t>GGM+Refinement</t>
+  </si>
+  <si>
+    <t>R2 Summary</t>
   </si>
 </sst>
 </file>
@@ -678,9 +684,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="170" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -768,6 +774,19 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -817,7 +836,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -848,10 +867,16 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1828,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1CF100-492E-4601-94D9-DFEFC6926913}">
   <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2116,7 +2141,7 @@
         <v>136</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.3">
@@ -2127,7 +2152,7 @@
         <v>138</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
@@ -2138,7 +2163,7 @@
         <v>139</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.3">
@@ -2171,7 +2196,7 @@
         <v>33</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
@@ -2182,7 +2207,7 @@
         <v>142</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
@@ -2369,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2EA5AC-0586-4893-B88A-0F9AA6E9FD44}">
-  <dimension ref="B1:AJ46"/>
+  <dimension ref="B1:AZ46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AF17" sqref="AF17"/>
+    <sheetView topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2400,18 +2425,27 @@
     <col min="26" max="26" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="27" max="27" width="12.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="2" style="20" customWidth="1"/>
-    <col min="29" max="29" width="15.109375" style="1" customWidth="1"/>
-    <col min="30" max="32" width="8.88671875" style="1"/>
-    <col min="33" max="33" width="2" style="20" customWidth="1"/>
-    <col min="34" max="16384" width="8.88671875" style="1"/>
+    <col min="29" max="31" width="12.109375" style="1" customWidth="1"/>
+    <col min="32" max="32" width="2" style="20" customWidth="1"/>
+    <col min="33" max="35" width="12.109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="2" style="20" customWidth="1"/>
+    <col min="37" max="37" width="15.109375" style="1" customWidth="1"/>
+    <col min="38" max="40" width="8.88671875" style="1"/>
+    <col min="41" max="41" width="2" style="20" customWidth="1"/>
+    <col min="42" max="44" width="8.88671875" style="1"/>
+    <col min="45" max="45" width="2" style="20" customWidth="1"/>
+    <col min="46" max="46" width="11.88671875" style="1" customWidth="1"/>
+    <col min="47" max="50" width="8.88671875" style="1"/>
+    <col min="51" max="51" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:52" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="10" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="2" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B2" s="19" t="s">
         <v>186</v>
       </c>
@@ -2431,13 +2465,22 @@
       <c r="W2" s="19"/>
       <c r="X2" s="19"/>
       <c r="AC2" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>139</v>
+      </c>
+      <c r="AK2" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="AP2" s="19" t="s">
         <v>200</v>
       </c>
-      <c r="AH2" s="19" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AT2" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="4" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B4" s="13" t="s">
         <v>181</v>
       </c>
@@ -2456,13 +2499,22 @@
       <c r="W4" s="13"/>
       <c r="X4" s="13"/>
       <c r="AC4" s="13" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH4" s="13" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="2:36" x14ac:dyDescent="0.3">
+        <v>198</v>
+      </c>
+      <c r="AG4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AK4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AP4" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="6" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B6" s="9" t="s">
         <v>166</v>
       </c>
@@ -2533,25 +2585,62 @@
         <v>195</v>
       </c>
       <c r="AD6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AE6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AH6" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="AI6" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AL6" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="AE6" s="9" t="s">
+      <c r="AM6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AF6" s="9" t="s">
+      <c r="AN6" s="9" t="s">
         <v>188</v>
       </c>
-      <c r="AH6" s="9" t="s">
+      <c r="AP6" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="AI6" s="9" t="s">
+      <c r="AQ6" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="AJ6" s="9" t="s">
+      <c r="AR6" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="7" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AT6" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU6" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV6" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW6" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY6" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ6" s="9"/>
+    </row>
+    <row r="7" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>171</v>
       </c>
@@ -2626,28 +2715,69 @@
         <v>15681.4452</v>
       </c>
       <c r="AC7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AD7" s="12">
+        <v>0.94224399999999997</v>
+      </c>
+      <c r="AE7" s="14">
+        <v>4703.6260300000004</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="AH7" s="12">
+        <v>0.91781400000000002</v>
+      </c>
+      <c r="AI7" s="14">
+        <v>5610.9171020000003</v>
+      </c>
+      <c r="AK7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AD7" s="1" t="s">
+      <c r="AL7" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AE7" s="12">
+      <c r="AM7" s="12">
         <v>-0.25174930000000001</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AN7" s="14">
         <v>210875.2597</v>
       </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AP7" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AI7" s="24">
+      <c r="AQ7" s="24">
         <v>0.99999979999999999</v>
       </c>
-      <c r="AJ7" s="26">
+      <c r="AR7" s="26">
         <v>91.979789999999994</v>
       </c>
-    </row>
-    <row r="8" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AT7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU7" s="14">
+        <f>+_xlfn.XLOOKUP($AT7,$AC$7:$AC$9,$AE$7:$AE$9)</f>
+        <v>22520.654823000001</v>
+      </c>
+      <c r="AV7" s="14">
+        <f>+_xlfn.XLOOKUP(AT7,$AG$7:$AG$9,$AI$7:$AI$9)</f>
+        <v>18974.986979000001</v>
+      </c>
+      <c r="AW7" s="14">
+        <f>+AN7</f>
+        <v>210875.2597</v>
+      </c>
+      <c r="AX7" s="14">
+        <f>+AN8</f>
+        <v>15764.5885</v>
+      </c>
+      <c r="AY7" s="14">
+        <f>+AR7</f>
+        <v>91.979789999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>172</v>
       </c>
@@ -2724,26 +2854,67 @@
       <c r="AC8" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="AD8" s="6" t="s">
+      <c r="AD8" s="18">
+        <v>0.98572300000000002</v>
+      </c>
+      <c r="AE8" s="17">
+        <v>22520.654823000001</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AH8" s="18">
+        <v>0.98986499999999999</v>
+      </c>
+      <c r="AI8" s="17">
+        <v>18974.986979000001</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL8" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AE8" s="18">
+      <c r="AM8" s="18">
         <v>0.99300429999999995</v>
       </c>
-      <c r="AF8" s="17">
+      <c r="AN8" s="17">
         <v>15764.5885</v>
       </c>
-      <c r="AH8" s="6" t="s">
+      <c r="AP8" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AI8" s="25">
+      <c r="AQ8" s="25">
         <v>0.99997420000000004</v>
       </c>
-      <c r="AJ8" s="27">
+      <c r="AR8" s="27">
         <v>99.435940000000002</v>
       </c>
-    </row>
-    <row r="9" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AT8" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU8" s="17">
+        <f t="shared" ref="AU8:AU9" si="7">+_xlfn.XLOOKUP(AT8,$AC$7:$AC$9,$AE$7:$AE$9)</f>
+        <v>4703.6260300000004</v>
+      </c>
+      <c r="AV8" s="17">
+        <f t="shared" ref="AV8:AV9" si="8">+_xlfn.XLOOKUP(AT8,$AG$7:$AG$9,$AI$7:$AI$9)</f>
+        <v>5610.9171020000003</v>
+      </c>
+      <c r="AW8" s="17">
+        <f>+AN9</f>
+        <v>1100.5509999999999</v>
+      </c>
+      <c r="AX8" s="17">
+        <f>+AN10</f>
+        <v>756.05920000000003</v>
+      </c>
+      <c r="AY8" s="17">
+        <f t="shared" ref="AY8:AY9" si="9">+AR8</f>
+        <v>99.435940000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>173</v>
       </c>
@@ -2818,28 +2989,69 @@
         <v>169850.0097</v>
       </c>
       <c r="AC9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AD9" s="12">
+        <v>0.98843700000000001</v>
+      </c>
+      <c r="AE9" s="14">
+        <v>2148.462321</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AH9" s="12">
+        <v>0.70254799999999995</v>
+      </c>
+      <c r="AI9" s="14">
+        <v>10896.633938999999</v>
+      </c>
+      <c r="AK9" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AD9" s="1" t="s">
+      <c r="AL9" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AE9" s="12">
+      <c r="AM9" s="12">
         <v>0.99683809999999995</v>
       </c>
-      <c r="AF9" s="14">
+      <c r="AN9" s="14">
         <v>1100.5509999999999</v>
       </c>
-      <c r="AH9" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI9" s="24">
+      <c r="AP9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AQ9" s="24">
         <v>0.9999806</v>
       </c>
-      <c r="AJ9" s="26">
+      <c r="AR9" s="26">
         <v>88.003110000000007</v>
       </c>
-    </row>
-    <row r="10" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AT9" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU9" s="14">
+        <f t="shared" si="7"/>
+        <v>2148.462321</v>
+      </c>
+      <c r="AV9" s="14">
+        <f t="shared" si="8"/>
+        <v>10896.633938999999</v>
+      </c>
+      <c r="AW9" s="14">
+        <f>+AN11</f>
+        <v>1976.5089</v>
+      </c>
+      <c r="AX9" s="14">
+        <f>+AN12</f>
+        <v>902.76419999999996</v>
+      </c>
+      <c r="AY9" s="14">
+        <f t="shared" si="9"/>
+        <v>88.003110000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B10" s="6" t="s">
         <v>191</v>
       </c>
@@ -2913,20 +3125,25 @@
         <f t="shared" si="6"/>
         <v>425.01549999999997</v>
       </c>
-      <c r="AC10" s="6" t="s">
+      <c r="AD10" s="12"/>
+      <c r="AE10" s="14"/>
+      <c r="AG10" s="14"/>
+      <c r="AH10" s="14"/>
+      <c r="AI10" s="14"/>
+      <c r="AK10" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="AD10" s="6" t="s">
+      <c r="AL10" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AE10" s="18">
+      <c r="AM10" s="18">
         <v>0.9985077</v>
       </c>
-      <c r="AF10" s="17">
+      <c r="AN10" s="17">
         <v>756.05920000000003</v>
       </c>
     </row>
-    <row r="11" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>175</v>
       </c>
@@ -3000,20 +3217,25 @@
         <f t="shared" si="6"/>
         <v>39575.911200000002</v>
       </c>
-      <c r="AC11" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD11" s="1" t="s">
+      <c r="AD11" s="12"/>
+      <c r="AE11" s="14"/>
+      <c r="AG11" s="14"/>
+      <c r="AH11" s="14"/>
+      <c r="AI11" s="14"/>
+      <c r="AK11" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL11" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="AE11" s="12">
+      <c r="AM11" s="12">
         <v>0.99021340000000002</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AN11" s="14">
         <v>1976.5089</v>
       </c>
     </row>
-    <row r="12" spans="2:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B12" s="6" t="s">
         <v>176</v>
       </c>
@@ -3087,20 +3309,28 @@
         <f t="shared" si="6"/>
         <v>16566.6181</v>
       </c>
-      <c r="AC12" s="6" t="s">
-        <v>198</v>
-      </c>
-      <c r="AD12" s="6" t="s">
+      <c r="AD12" s="12"/>
+      <c r="AE12" s="14"/>
+      <c r="AG12" s="14"/>
+      <c r="AH12" s="14"/>
+      <c r="AI12" s="14"/>
+      <c r="AK12" s="6" t="s">
+        <v>201</v>
+      </c>
+      <c r="AL12" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="AE12" s="18">
+      <c r="AM12" s="18">
         <v>0.99795840000000002</v>
       </c>
-      <c r="AF12" s="17">
+      <c r="AN12" s="17">
         <v>902.76419999999996</v>
       </c>
-    </row>
-    <row r="13" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AT12" s="19" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>177</v>
       </c>
@@ -3174,8 +3404,14 @@
         <f t="shared" si="6"/>
         <v>24061.312300000001</v>
       </c>
-    </row>
-    <row r="14" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AC13" s="14"/>
+      <c r="AD13" s="14"/>
+      <c r="AE13" s="14"/>
+      <c r="AG13" s="14"/>
+      <c r="AH13" s="14"/>
+      <c r="AI13" s="14"/>
+    </row>
+    <row r="14" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B14" s="6" t="s">
         <v>178</v>
       </c>
@@ -3249,8 +3485,17 @@
         <f t="shared" si="6"/>
         <v>1157.9239</v>
       </c>
-    </row>
-    <row r="15" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AC14" s="14"/>
+      <c r="AD14" s="14"/>
+      <c r="AE14" s="14"/>
+      <c r="AG14" s="14"/>
+      <c r="AH14" s="14"/>
+      <c r="AI14" s="14"/>
+      <c r="AT14" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="15" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
         <v>179</v>
       </c>
@@ -3324,8 +3569,14 @@
         <f t="shared" si="6"/>
         <v>55078.919900000001</v>
       </c>
-    </row>
-    <row r="16" spans="2:36" x14ac:dyDescent="0.3">
+      <c r="AC15" s="14"/>
+      <c r="AD15" s="14"/>
+      <c r="AE15" s="14"/>
+      <c r="AG15" s="14"/>
+      <c r="AH15" s="14"/>
+      <c r="AI15" s="14"/>
+    </row>
+    <row r="16" spans="2:52" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>180</v>
       </c>
@@ -3399,8 +3650,82 @@
         <f t="shared" si="6"/>
         <v>55089.632700000002</v>
       </c>
-    </row>
-    <row r="19" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="AC16" s="14"/>
+      <c r="AD16" s="14"/>
+      <c r="AE16" s="14"/>
+      <c r="AG16" s="14"/>
+      <c r="AH16" s="14"/>
+      <c r="AI16" s="14"/>
+      <c r="AT16" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="AU16" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="AV16" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="AW16" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="AX16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY16" s="9" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="17" spans="2:51" x14ac:dyDescent="0.3">
+      <c r="AT17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="AU17" s="12">
+        <f>+_xlfn.XLOOKUP($AT17,$AC$7:$AC$9,$AD$7:$AD$9)</f>
+        <v>0.98572300000000002</v>
+      </c>
+      <c r="AV17" s="12">
+        <f>+_xlfn.XLOOKUP(AT17,$AG$7:$AG$9,$AH$7:$AH$9)</f>
+        <v>0.98986499999999999</v>
+      </c>
+      <c r="AW17" s="12">
+        <f>+AM7</f>
+        <v>-0.25174930000000001</v>
+      </c>
+      <c r="AX17" s="12">
+        <f>+AM8</f>
+        <v>0.99300429999999995</v>
+      </c>
+      <c r="AY17" s="12">
+        <f>+AQ7</f>
+        <v>0.99999979999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="2:51" x14ac:dyDescent="0.3">
+      <c r="AT18" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="AU18" s="18">
+        <f t="shared" ref="AU18:AU19" si="10">+_xlfn.XLOOKUP($AT18,$AC$7:$AC$9,$AD$7:$AD$9)</f>
+        <v>0.94224399999999997</v>
+      </c>
+      <c r="AV18" s="18">
+        <f t="shared" ref="AV18:AV19" si="11">+_xlfn.XLOOKUP(AT18,$AG$7:$AG$9,$AH$7:$AH$9)</f>
+        <v>0.91781400000000002</v>
+      </c>
+      <c r="AW18" s="18">
+        <f>+AM9</f>
+        <v>0.99683809999999995</v>
+      </c>
+      <c r="AX18" s="18">
+        <f>+AM10</f>
+        <v>0.9985077</v>
+      </c>
+      <c r="AY18" s="18">
+        <f t="shared" ref="AY18:AY19" si="12">+AQ8</f>
+        <v>0.99997420000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B19" s="13" t="s">
         <v>183</v>
       </c>
@@ -3411,14 +3736,37 @@
       <c r="V19" s="22"/>
       <c r="W19" s="22"/>
       <c r="X19" s="22"/>
-    </row>
-    <row r="20" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="AT19" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AU19" s="12">
+        <f t="shared" si="10"/>
+        <v>0.98843700000000001</v>
+      </c>
+      <c r="AV19" s="12">
+        <f t="shared" si="11"/>
+        <v>0.70254799999999995</v>
+      </c>
+      <c r="AW19" s="12">
+        <f>+AM11</f>
+        <v>0.99021340000000002</v>
+      </c>
+      <c r="AX19" s="12">
+        <f>+AM12</f>
+        <v>0.99795840000000002</v>
+      </c>
+      <c r="AY19" s="12">
+        <f t="shared" si="12"/>
+        <v>0.9999806</v>
+      </c>
+    </row>
+    <row r="20" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="T20" s="21"/>
       <c r="V20" s="23"/>
       <c r="W20" s="23"/>
       <c r="X20" s="23"/>
     </row>
-    <row r="21" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
         <v>166</v>
       </c>
@@ -3454,7 +3802,7 @@
       <c r="W21" s="23"/>
       <c r="X21" s="23"/>
     </row>
-    <row r="22" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>171</v>
       </c>
@@ -3492,7 +3840,7 @@
       <c r="W22" s="23"/>
       <c r="X22" s="23"/>
     </row>
-    <row r="23" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B23" s="6" t="s">
         <v>172</v>
       </c>
@@ -3509,7 +3857,7 @@
         <v>191678.16</v>
       </c>
       <c r="G23" s="6" t="str">
-        <f t="shared" ref="G23:G31" si="7">+IF(F23&lt;D23,"GGM","BM")</f>
+        <f t="shared" ref="G23:G31" si="13">+IF(F23&lt;D23,"GGM","BM")</f>
         <v>GGM</v>
       </c>
       <c r="I23" s="6" t="s">
@@ -3522,15 +3870,21 @@
         <v>7970.5929999999998</v>
       </c>
       <c r="L23" s="17">
-        <f t="shared" ref="L23:L31" si="8">+K23-_xlfn.XLOOKUP(I23,B$22:B$31,F$22:F$31)</f>
+        <f t="shared" ref="L23:L31" si="14">+K23-_xlfn.XLOOKUP(I23,B$22:B$31,F$22:F$31)</f>
         <v>-183707.56700000001</v>
       </c>
       <c r="T23" s="21"/>
       <c r="V23" s="23"/>
       <c r="W23" s="23"/>
       <c r="X23" s="23"/>
-    </row>
-    <row r="24" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="AC23" s="28"/>
+      <c r="AD23" s="28"/>
+      <c r="AE23" s="28"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="28"/>
+      <c r="AI23" s="28"/>
+    </row>
+    <row r="24" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>173</v>
       </c>
@@ -3547,7 +3901,7 @@
         <v>170016.12</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I24" s="1" t="s">
@@ -3560,15 +3914,21 @@
         <v>10259.941000000001</v>
       </c>
       <c r="L24" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-159756.179</v>
       </c>
       <c r="T24" s="21"/>
       <c r="V24" s="23"/>
       <c r="W24" s="23"/>
       <c r="X24" s="23"/>
-    </row>
-    <row r="25" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="AC24" s="28"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+      <c r="AI24" s="29"/>
+    </row>
+    <row r="25" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B25" s="6" t="s">
         <v>174</v>
       </c>
@@ -3585,7 +3945,7 @@
         <v>20254.93</v>
       </c>
       <c r="G25" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I25" s="6" t="s">
@@ -3598,15 +3958,21 @@
         <v>2682.71</v>
       </c>
       <c r="L25" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-17572.22</v>
       </c>
       <c r="T25" s="21"/>
       <c r="V25" s="23"/>
       <c r="W25" s="23"/>
       <c r="X25" s="23"/>
-    </row>
-    <row r="26" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="AC25" s="28"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+      <c r="AI25" s="29"/>
+    </row>
+    <row r="26" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>175</v>
       </c>
@@ -3623,7 +3989,7 @@
         <v>1270365.45</v>
       </c>
       <c r="G26" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I26" s="1" t="s">
@@ -3636,15 +4002,21 @@
         <v>54571.813999999998</v>
       </c>
       <c r="L26" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-1215793.6359999999</v>
       </c>
       <c r="T26" s="21"/>
       <c r="V26" s="23"/>
       <c r="W26" s="23"/>
       <c r="X26" s="23"/>
-    </row>
-    <row r="27" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="AC26" s="28"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+      <c r="AI26" s="29"/>
+    </row>
+    <row r="27" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B27" s="6" t="s">
         <v>176</v>
       </c>
@@ -3661,7 +4033,7 @@
         <v>962242.14</v>
       </c>
       <c r="G27" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I27" s="6" t="s">
@@ -3674,7 +4046,7 @@
         <v>37554.368000000002</v>
       </c>
       <c r="L27" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-924687.772</v>
       </c>
       <c r="T27" s="21"/>
@@ -3682,7 +4054,7 @@
       <c r="W27" s="23"/>
       <c r="X27" s="23"/>
     </row>
-    <row r="28" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>177</v>
       </c>
@@ -3699,7 +4071,7 @@
         <v>177553.42</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I28" s="1" t="s">
@@ -3712,7 +4084,7 @@
         <v>18001.951000000001</v>
       </c>
       <c r="L28" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-159551.46900000001</v>
       </c>
       <c r="T28" s="21"/>
@@ -3720,7 +4092,7 @@
       <c r="W28" s="23"/>
       <c r="X28" s="23"/>
     </row>
-    <row r="29" spans="2:24" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:51" ht="16.8" x14ac:dyDescent="0.3">
       <c r="B29" s="6" t="s">
         <v>178</v>
       </c>
@@ -3737,7 +4109,7 @@
         <v>41689.589999999997</v>
       </c>
       <c r="G29" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I29" s="6" t="s">
@@ -3750,7 +4122,7 @@
         <v>2688.72</v>
       </c>
       <c r="L29" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-39000.869999999995</v>
       </c>
       <c r="T29" s="21"/>
@@ -3758,7 +4130,7 @@
       <c r="W29" s="23"/>
       <c r="X29" s="23"/>
     </row>
-    <row r="30" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>179</v>
       </c>
@@ -3775,7 +4147,7 @@
         <v>55105.7</v>
       </c>
       <c r="G30" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I30" s="1" t="s">
@@ -3788,11 +4160,11 @@
         <v>3653520.236</v>
       </c>
       <c r="L30" s="14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-4.0000001899898052E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:51" x14ac:dyDescent="0.3">
       <c r="B31" s="6" t="s">
         <v>180</v>
       </c>
@@ -3809,7 +4181,7 @@
         <v>3653520.24</v>
       </c>
       <c r="G31" s="6" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>GGM</v>
       </c>
       <c r="I31" s="6" t="s">
@@ -3822,7 +4194,7 @@
         <v>2309.4769999999999</v>
       </c>
       <c r="L31" s="17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>-52796.222999999998</v>
       </c>
     </row>
@@ -3917,7 +4289,7 @@
         <v>211942.1</v>
       </c>
       <c r="G38" s="6" t="str">
-        <f t="shared" ref="G38:G46" si="9">+IF(F38&lt;D38,"GGM","BM")</f>
+        <f t="shared" ref="G38:G46" si="15">+IF(F38&lt;D38,"GGM","BM")</f>
         <v>GGM</v>
       </c>
       <c r="I38" s="6" t="s">
@@ -3930,7 +4302,7 @@
         <v>100789.75999999999</v>
       </c>
       <c r="L38" s="17">
-        <f t="shared" ref="L38:L46" si="10">+K38-_xlfn.XLOOKUP(I38,B$37:B$46,F$37:F$46)</f>
+        <f t="shared" ref="L38:L46" si="16">+K38-_xlfn.XLOOKUP(I38,B$37:B$46,F$37:F$46)</f>
         <v>-111152.34000000001</v>
       </c>
     </row>
@@ -3951,7 +4323,7 @@
         <v>174775.12</v>
       </c>
       <c r="G39" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I39" s="1" t="s">
@@ -3964,7 +4336,7 @@
         <v>120410.38</v>
       </c>
       <c r="L39" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-54364.739999999991</v>
       </c>
     </row>
@@ -3985,7 +4357,7 @@
         <v>23030.65</v>
       </c>
       <c r="G40" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I40" s="6" t="s">
@@ -3998,7 +4370,7 @@
         <v>18214.75</v>
       </c>
       <c r="L40" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-4815.9000000000015</v>
       </c>
     </row>
@@ -4019,7 +4391,7 @@
         <v>1236195.68</v>
       </c>
       <c r="G41" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I41" s="1" t="s">
@@ -4032,7 +4404,7 @@
         <v>510440.15</v>
       </c>
       <c r="L41" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-725755.52999999991</v>
       </c>
     </row>
@@ -4053,7 +4425,7 @@
         <v>1098061.48</v>
       </c>
       <c r="G42" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I42" s="6" t="s">
@@ -4066,7 +4438,7 @@
         <v>631028.31999999995</v>
       </c>
       <c r="L42" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-467033.16000000003</v>
       </c>
     </row>
@@ -4087,7 +4459,7 @@
         <v>198641.06</v>
       </c>
       <c r="G43" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I43" s="1" t="s">
@@ -4100,7 +4472,7 @@
         <v>126978.78</v>
       </c>
       <c r="L43" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-71662.28</v>
       </c>
     </row>
@@ -4121,7 +4493,7 @@
         <v>46165.85</v>
       </c>
       <c r="G44" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I44" s="6" t="s">
@@ -4134,7 +4506,7 @@
         <v>29197.63</v>
       </c>
       <c r="L44" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-16968.219999999998</v>
       </c>
     </row>
@@ -4155,7 +4527,7 @@
         <v>53945.74</v>
       </c>
       <c r="G45" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I45" s="1" t="s">
@@ -4168,7 +4540,7 @@
         <v>4077694.45</v>
       </c>
       <c r="L45" s="14">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
     </row>
@@ -4189,7 +4561,7 @@
         <v>4077694.45</v>
       </c>
       <c r="G46" s="6" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="15"/>
         <v>GGM</v>
       </c>
       <c r="I46" s="6" t="s">
@@ -4202,13 +4574,13 @@
         <v>30806.880000000001</v>
       </c>
       <c r="L46" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>-23138.859999999997</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="W7:AA16">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="W7:AA16 AC13:AE16 AG13:AI16">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>

--- a/administrative/main.xlsx
+++ b/administrative/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danie\Documents\GitHub\pandemic_modelling\administrative\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95C0AC4-DE5B-44CF-B98F-9EC02F1C8332}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48584632-088B-4AB9-BDB4-836BE47FD4AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="6" xr2:uid="{4AC8BB16-67F5-4941-86E8-7E194268DB8A}"/>
   </bookViews>
   <sheets>
     <sheet name="literature review" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,8 @@
     <sheet name="modelling" sheetId="6" r:id="rId5"/>
     <sheet name="results" sheetId="8" r:id="rId6"/>
     <sheet name="Ideas" sheetId="5" r:id="rId7"/>
-    <sheet name="help" sheetId="7" r:id="rId8"/>
+    <sheet name="pytrends_categories" sheetId="9" r:id="rId8"/>
+    <sheet name="help" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="226">
   <si>
     <t>Pandemics &amp; Diffussion Models</t>
   </si>
@@ -675,6 +676,72 @@
   </si>
   <si>
     <t>R2 Summary</t>
+  </si>
+  <si>
+    <t>Google trends health</t>
+  </si>
+  <si>
+    <t>Pytrends useful categories</t>
+  </si>
+  <si>
+    <t>Health News: 1253</t>
+  </si>
+  <si>
+    <t>Health Policy: 1256</t>
+  </si>
+  <si>
+    <t>Medical Facilities &amp; Services: 256</t>
+  </si>
+  <si>
+    <t>Public Health: 947</t>
+  </si>
+  <si>
+    <t>Health Conditions: 419</t>
+  </si>
+  <si>
+    <t>Health: 45</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/10.1177/14604582241275844?icid=int.sj-full-text.citing-articles.1</t>
+  </si>
+  <si>
+    <t>ML epidemics</t>
+  </si>
+  <si>
+    <t>AI-based epidemic and pandemic early warning systems: A systematic scoping review</t>
+  </si>
+  <si>
+    <t>temperature, humitiy</t>
+  </si>
+  <si>
+    <t>demographic density</t>
+  </si>
+  <si>
+    <t># healt facilities</t>
+  </si>
+  <si>
+    <t>uv radiation band, ask einer</t>
+  </si>
+  <si>
+    <t>altimetry</t>
+  </si>
+  <si>
+    <t>WASTEWATER</t>
+  </si>
+  <si>
+    <t>pharmacy sales</t>
+  </si>
+  <si>
+    <t>pharmacy google trends</t>
+  </si>
+  <si>
+    <t>animal health data</t>
+  </si>
+  <si>
+    <t>do hybrid GGM-ML / SIR-ML</t>
+  </si>
+  <si>
+    <t>Use alternative data (satelite, mobility, searches, nlp_</t>
   </si>
 </sst>
 </file>
@@ -836,7 +903,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -877,6 +944,7 @@
     <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1212,10 +1280,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354077A2-E602-4D9A-90DA-98AD5E623913}">
-  <dimension ref="B1:F24"/>
+  <dimension ref="B1:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1539,6 +1607,20 @@
       </c>
       <c r="E24" s="4" t="s">
         <v>160</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1">
+        <v>22</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -1565,6 +1647,7 @@
     <hyperlink ref="E22" r:id="rId20" xr:uid="{94F4A7D7-3F55-4643-9FD0-A11EF159A4C1}"/>
     <hyperlink ref="E23" r:id="rId21" xr:uid="{3D99AF48-A732-4ADA-B469-518D1E1C4F59}"/>
     <hyperlink ref="E24" r:id="rId22" xr:uid="{EAAB6CA0-E60C-4CCA-9A60-6D6314C9AA39}"/>
+    <hyperlink ref="E25" r:id="rId23" xr:uid="{4730B165-77B9-44CC-96F1-5D46B06A3B46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1853,8 +1936,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED1CF100-492E-4601-94D9-DFEFC6926913}">
   <dimension ref="B1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D49" sqref="D49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4597,10 +4680,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE21AE24-7B23-4499-8D22-C9A70AD3E5F9}">
-  <dimension ref="B1:C26"/>
+  <dimension ref="B1:C38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4808,12 +4891,132 @@
         <v>163</v>
       </c>
     </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="1">
+        <v>25</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="1">
+        <v>26</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C29" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C30" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C31" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C32" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C33" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C34" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C35" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C36" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C37" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C38" s="1" t="s">
+        <v>225</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCC3A30-8DEB-4A80-AC0D-2CC25A9FC432}">
+  <dimension ref="B1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="2" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="13" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="30" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="30" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="30" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="30" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="30" t="s">
+        <v>211</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5625718-4007-43A2-8FA5-6282944FC450}">
   <dimension ref="B1:B5"/>
   <sheetViews>
